--- a/Projects/Tanzania/data/national/InputForCode_Tanzania.xlsx
+++ b/Projects/Tanzania/data/national/InputForCode_Tanzania.xlsx
@@ -1,52 +1,71 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/2018Jan/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/Projects/Tanzania/data/national/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D81EC5-8A6C-6F40-9A34-58B4162CE127}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{DB96B1CF-64C8-5F4A-BC12-BAA1B31F78CE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="15540" activeTab="2" xr2:uid="{9CA16DF4-3AE6-9240-921D-580CF0357D1B}"/>
+    <workbookView xWindow="4280" yWindow="460" windowWidth="19200" windowHeight="15540" activeTab="3" xr2:uid="{9CA16DF4-3AE6-9240-921D-580CF0357D1B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
-    <sheet name="Demographic projections" sheetId="2" r:id="rId2"/>
-    <sheet name="Annual prevalence" sheetId="52" r:id="rId3"/>
-    <sheet name="Causes of death" sheetId="4" r:id="rId4"/>
-    <sheet name="Incidence of conditions" sheetId="7" r:id="rId5"/>
-    <sheet name="Prevalence of anaemia" sheetId="29" r:id="rId6"/>
-    <sheet name="Distributions" sheetId="5" r:id="rId7"/>
-    <sheet name="Distributions data" sheetId="50" r:id="rId8"/>
-    <sheet name="Distribution births" sheetId="42" r:id="rId9"/>
-    <sheet name="Birth outcomes &amp; risks" sheetId="6" r:id="rId10"/>
-    <sheet name="Relative risks" sheetId="26" r:id="rId11"/>
-    <sheet name="Odds ratios" sheetId="27" r:id="rId12"/>
-    <sheet name="IYCF package odds ratios" sheetId="32" r:id="rId13"/>
-    <sheet name="IYCF packages" sheetId="33" r:id="rId14"/>
-    <sheet name="IYCF cost &amp; coverage" sheetId="35" r:id="rId15"/>
-    <sheet name="Appropriate breastfeeding" sheetId="19" r:id="rId16"/>
-    <sheet name="Programs birth outcomes" sheetId="22" r:id="rId17"/>
-    <sheet name="Programs anaemia" sheetId="30" r:id="rId18"/>
-    <sheet name="Programs wasting" sheetId="31" r:id="rId19"/>
-    <sheet name="Programs for children" sheetId="28" r:id="rId20"/>
-    <sheet name="Programs family planning" sheetId="34" r:id="rId21"/>
-    <sheet name="Programs for PW" sheetId="45" r:id="rId22"/>
-    <sheet name="Programs birth age" sheetId="46" r:id="rId23"/>
-    <sheet name="Programs target population" sheetId="21" r:id="rId24"/>
-    <sheet name="Programs impacted population" sheetId="47" r:id="rId25"/>
-    <sheet name="Program dependencies" sheetId="40" r:id="rId26"/>
-    <sheet name="Program risk areas" sheetId="36" r:id="rId27"/>
-    <sheet name="Population risk areas" sheetId="43" r:id="rId28"/>
-    <sheet name="Programs cost and coverage" sheetId="20" r:id="rId29"/>
-    <sheet name="Programs annual spending" sheetId="51" r:id="rId30"/>
-    <sheet name="Reference programs" sheetId="49" r:id="rId31"/>
-    <sheet name="Programs to include" sheetId="44" r:id="rId32"/>
+    <sheet name="Expenditure &amp; budget" sheetId="53" r:id="rId1"/>
+    <sheet name="Baseline year demographics" sheetId="1" r:id="rId2"/>
+    <sheet name="Demographic projections" sheetId="2" r:id="rId3"/>
+    <sheet name="Annual prevalence" sheetId="52" r:id="rId4"/>
+    <sheet name="Causes of death" sheetId="4" r:id="rId5"/>
+    <sheet name="Incidence of conditions" sheetId="7" r:id="rId6"/>
+    <sheet name="Prevalence of anaemia" sheetId="29" r:id="rId7"/>
+    <sheet name="Distributions" sheetId="5" r:id="rId8"/>
+    <sheet name="Distributions data" sheetId="50" r:id="rId9"/>
+    <sheet name="Distribution births" sheetId="42" r:id="rId10"/>
+    <sheet name="Birth outcomes &amp; risks" sheetId="6" r:id="rId11"/>
+    <sheet name="Relative risks" sheetId="26" r:id="rId12"/>
+    <sheet name="Odds ratios" sheetId="27" r:id="rId13"/>
+    <sheet name="IYCF package odds ratios" sheetId="32" r:id="rId14"/>
+    <sheet name="IYCF packages" sheetId="33" r:id="rId15"/>
+    <sheet name="IYCF cost &amp; coverage" sheetId="35" r:id="rId16"/>
+    <sheet name="Appropriate breastfeeding" sheetId="19" r:id="rId17"/>
+    <sheet name="Programs birth outcomes" sheetId="22" r:id="rId18"/>
+    <sheet name="Programs anaemia" sheetId="30" r:id="rId19"/>
+    <sheet name="Programs wasting" sheetId="31" r:id="rId20"/>
+    <sheet name="Programs for children" sheetId="28" r:id="rId21"/>
+    <sheet name="Programs family planning" sheetId="34" r:id="rId22"/>
+    <sheet name="Programs for PW" sheetId="45" r:id="rId23"/>
+    <sheet name="Programs birth age" sheetId="46" r:id="rId24"/>
+    <sheet name="Programs target population" sheetId="21" r:id="rId25"/>
+    <sheet name="Programs impacted population" sheetId="47" r:id="rId26"/>
+    <sheet name="Program dependencies" sheetId="40" r:id="rId27"/>
+    <sheet name="Program risk areas" sheetId="36" r:id="rId28"/>
+    <sheet name="Population risk areas" sheetId="43" r:id="rId29"/>
+    <sheet name="Programs cost and coverage" sheetId="20" r:id="rId30"/>
+    <sheet name="Programs annual spending" sheetId="51" r:id="rId31"/>
+    <sheet name="Reference programs" sheetId="49" r:id="rId32"/>
+    <sheet name="Programs to include" sheetId="44" r:id="rId33"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <externalReferences>
+    <externalReference r:id="rId34"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="FPCov">'[1]Programs cost and coverage'!$B$6</definedName>
+    <definedName name="FPunmetNeed">'[1]Baseline year demographics'!$C$11</definedName>
+    <definedName name="FracEatingWheat">'[1]Baseline year demographics'!$C$27</definedName>
+    <definedName name="FracEatMaize">'[1]Baseline year demographics'!$C$28</definedName>
+    <definedName name="FracEatRice">'[1]Baseline year demographics'!$C$26</definedName>
+    <definedName name="FracPoor">'[1]Baseline year demographics'!$C$7</definedName>
+    <definedName name="FracRiskMalaria">'[1]Baseline year demographics'!$C$8</definedName>
+    <definedName name="FracSchoolAttendance">'[1]Baseline year demographics'!$C$6</definedName>
+    <definedName name="NumNonPW">'[1]Baseline year demographics'!$C$38:$C$41</definedName>
+    <definedName name="NumPW">'[1]Baseline year demographics'!$C$5</definedName>
+    <definedName name="PWDist">'[1]Baseline year demographics'!$C$50:$C$53</definedName>
+    <definedName name="PWPop">'[1]Baseline year demographics'!$C$44:$C$47</definedName>
+    <definedName name="WRAPop">'[1]Baseline year demographics'!$C$32:$C$35</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -61,12 +80,283 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author xml:space="preserve"> Janka Petravic</author>
-    <author>Nick</author>
-    <author>Janka Petravic</author>
+    <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{93D2239E-8D0C-4D4F-AC79-C9DFD64C6DF7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ensures that the 'current spending' value is equal to this.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{2A9EA356-0B8C-E046-9328-7565370407C7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Total funds that are available for program allocation</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Sam</author>
+    <author>Janka Petravic</author>
+    <author xml:space="preserve"> Janka Petravic</author>
+  </authors>
+  <commentList>
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+May not need these beyond calculation below</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F12" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0900-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LiST: 1.11</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This calculation 'dilutes' OR so that we cover 'everyone' with IYCF, not just frac poor</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E13" authorId="0" shapeId="0" xr:uid="{894C6F33-B8E6-8B45-8B5E-FDFEB9A77B85}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick had these in the params documentation</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>This assumes we deliver PPCF with education to the poor</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This assumes we deliver PPCF with education to the poor</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>This assumes we deliver PPCF with education to the poor</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B18" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0900-000007000000}">
       <text>
         <r>
           <rPr>
@@ -86,59 +376,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-This is calculated, this is why it is grey -f formula should be in the input sheet</t>
+This should be changed later I guess</t>
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-DHS: fraction of women with secondary education</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Fraction food insecure in the target population (here the lowest 2 wealth quintiles)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="B19" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0900-000008000000}">
       <text>
         <r>
           <rPr>
@@ -158,247 +400,40 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-per 100,000 live births</t>
+This should be changed later I guess</t>
         </r>
       </text>
     </comment>
-    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="C21" authorId="0" shapeId="0" xr:uid="{9BF08685-00AE-914A-9178-3CDB9EDE5066}">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
+          <t>Sam:</t>
         </r>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Fraction of pregnancies ending in spontaneous abortion</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
+</t>
         </r>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">
-Number of stillbirths per 1000 TOTAL births</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Per 1000 live births</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Per 1000 live births</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Per 1000 live births</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Guesses</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Should add up to 1</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A39" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Should add up to 1</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A45" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Should add up to 1</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A51" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Should add up to 1</t>
+          <t>Assumed same as stunting</t>
         </r>
       </text>
     </comment>
@@ -406,7 +441,7 @@
 </comments>
 </file>
 
-<file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
@@ -440,7 +475,7 @@
 </comments>
 </file>
 
-<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
@@ -493,7 +528,7 @@
 </comments>
 </file>
 
-<file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
@@ -576,7 +611,7 @@
 </comments>
 </file>
 
-<file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author xml:space="preserve"> Janka Petravic</author>
@@ -716,7 +751,7 @@
 </comments>
 </file>
 
-<file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author xml:space="preserve"> Janka Petravic</author>
@@ -1357,7 +1392,7 @@
 </comments>
 </file>
 
-<file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments16.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
@@ -1596,7 +1631,7 @@
 </comments>
 </file>
 
-<file path=xl/comments16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments17.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Ruth</author>
@@ -1630,7 +1665,7 @@
 </comments>
 </file>
 
-<file path=xl/comments17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments18.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author xml:space="preserve"> Janka Petravic</author>
@@ -1691,7 +1726,7 @@
 </comments>
 </file>
 
-<file path=xl/comments18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments19.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
@@ -1881,7 +1916,364 @@
 </comments>
 </file>
 
-<file path=xl/comments19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author xml:space="preserve"> Janka Petravic</author>
+    <author>Nick</author>
+    <author>Janka Petravic</author>
+  </authors>
+  <commentList>
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This is calculated, this is why it is grey -f formula should be in the input sheet</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C7" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+DHS: fraction of women with secondary education</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Fraction food insecure in the target population (here the lowest 2 wealth quintiles)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+per 100,000 live births</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Fraction of pregnancies ending in spontaneous abortion</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Number of stillbirths per 1000 TOTAL births</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Per 1000 live births</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Per 1000 live births</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Per 1000 live births</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Guesses</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Should add up to 1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A39" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Should add up to 1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A45" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Should add up to 1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A51" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Should add up to 1</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments20.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
@@ -2061,89 +2453,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author xml:space="preserve"> Janka Petravic</author>
-  </authors>
-  <commentList>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-calculated</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-calculated</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-calculated</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments21.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Ruth</author>
@@ -2861,7 +3171,7 @@
 </comments>
 </file>
 
-<file path=xl/comments21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments22.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
@@ -2909,7 +3219,7 @@
 </comments>
 </file>
 
-<file path=xl/comments22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments23.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
@@ -2946,6 +3256,88 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author xml:space="preserve"> Janka Petravic</author>
+  </authors>
+  <commentList>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+calculated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+calculated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+calculated</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
     <author>Sam</author>
   </authors>
   <commentList>
@@ -2977,7 +3369,7 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
@@ -3020,7 +3412,7 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
@@ -3329,7 +3721,7 @@
 </comments>
 </file>
 
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
@@ -3372,7 +3764,7 @@
 </comments>
 </file>
 
-<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Nick</author>
@@ -3406,7 +3798,7 @@
 </comments>
 </file>
 
-<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author xml:space="preserve"> Janka Petravic</author>
@@ -3464,296 +3856,8 @@
 </comments>
 </file>
 
-<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Sam</author>
-    <author>Janka Petravic</author>
-    <author xml:space="preserve"> Janka Petravic</author>
-  </authors>
-  <commentList>
-    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-May not need these beyond calculation below</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F12" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0900-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-LiST: 1.11</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-This calculation 'dilutes' OR so that we cover 'everyone' with IYCF, not just frac poor</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E13" authorId="0" shapeId="0" xr:uid="{894C6F33-B8E6-8B45-8B5E-FDFEB9A77B85}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick had these in the params documentation</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>This assumes we deliver PPCF with education to the poor</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000005000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-This assumes we deliver PPCF with education to the poor</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000006000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>This assumes we deliver PPCF with education to the poor</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B18" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0900-000007000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-This should be changed later I guess</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B19" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0900-000008000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-This should be changed later I guess</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C21" authorId="0" shapeId="0" xr:uid="{9BF08685-00AE-914A-9178-3CDB9EDE5066}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Assumed same as stunting</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="288">
   <si>
     <t>year</t>
   </si>
@@ -4310,15 +4414,6 @@
     <t>maternal mortality</t>
   </si>
   <si>
-    <t>neonatal mortality</t>
-  </si>
-  <si>
-    <t>infant mortality</t>
-  </si>
-  <si>
-    <t>under 5 mortality</t>
-  </si>
-  <si>
     <t>OR stunting progression</t>
   </si>
   <si>
@@ -4608,6 +4703,24 @@
   </si>
   <si>
     <t>Risk</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Current expenditure</t>
+  </si>
+  <si>
+    <t>Available budget</t>
+  </si>
+  <si>
+    <t>neonatal</t>
+  </si>
+  <si>
+    <t>infant</t>
+  </si>
+  <si>
+    <t>under 5</t>
   </si>
 </sst>
 </file>
@@ -5051,7 +5164,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="689">
+  <cellStyleXfs count="690">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5741,8 +5854,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5980,8 +6094,12 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="689" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="689" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="689" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="689" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="689">
+  <cellStyles count="690">
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -6670,6 +6788,7 @@
     <cellStyle name="Hyperlink" xfId="685" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="687" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="689" xr:uid="{B046CFAD-7488-874E-846B-58AE68202316}"/>
     <cellStyle name="Percent" xfId="10" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -7765,6 +7884,210 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Baseline year demographics"/>
+      <sheetName val="Demographic projections"/>
+      <sheetName val="Annual prevalence"/>
+      <sheetName val="Causes of death"/>
+      <sheetName val="Incidence of conditions"/>
+      <sheetName val="Prevalence of anaemia"/>
+      <sheetName val="Distributions"/>
+      <sheetName val="Distribution births"/>
+      <sheetName val="Birth outcomes &amp; risks"/>
+      <sheetName val="IYCF packages"/>
+      <sheetName val="IYCF cost &amp; coverage"/>
+      <sheetName val="Programs to include"/>
+      <sheetName val="Program dependencies"/>
+      <sheetName val="Programs annual scale-up"/>
+      <sheetName val="Programs annual spending"/>
+      <sheetName val="Reference programs"/>
+      <sheetName val="Programs cost and coverage"/>
+      <sheetName val="Expenditure &amp; budget"/>
+      <sheetName val="Appropriate breastfeeding"/>
+      <sheetName val="IYCF package odds ratios"/>
+      <sheetName val="Relative risks"/>
+      <sheetName val="Odds ratios"/>
+      <sheetName val="Programs birth outcomes"/>
+      <sheetName val="Programs anaemia"/>
+      <sheetName val="Programs wasting"/>
+      <sheetName val="Programs for children"/>
+      <sheetName val="Programs family planning"/>
+      <sheetName val="Programs for PW"/>
+      <sheetName val="Programs birth age"/>
+      <sheetName val="Programs target population"/>
+      <sheetName val="Programs impacted population"/>
+      <sheetName val="Program risk areas"/>
+      <sheetName val="Population risk areas"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="5">
+          <cell r="C5">
+            <v>3677298.8269880489</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="C6">
+            <v>0.35199999999999998</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>0.36</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>0.1</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>0.1</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="C26">
+            <v>0.8</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="C27">
+            <v>0.12</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="C28">
+            <v>0.05</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="C32">
+            <v>8634000</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="C33">
+            <v>13550000</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="C34">
+            <v>12394000</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="C35">
+            <v>9148000</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="C38">
+            <v>7531583.5695012193</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="C39">
+            <v>11617337.925466225</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="C40">
+            <v>11797902.113393042</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="C41">
+            <v>9101877.564651465</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="C44">
+            <v>1102416.4304987811</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="C45">
+            <v>1932662.074533775</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="C46">
+            <v>596097.88660695858</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="C47">
+            <v>46122.435348534098</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="C50">
+            <v>0.29978973218277538</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="C51">
+            <v>0.52556568434139284</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="C52">
+            <v>0.16210210664201097</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="C53">
+            <v>1.2542476833820825E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16">
+        <row r="6">
+          <cell r="B6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -8086,446 +8409,195 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E9BF2EA-0A98-3F48-A894-777FDC4375CA}">
+  <sheetPr>
+    <tabColor theme="7" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="1" max="1" width="17.5" style="148" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" style="148" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="148"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="86">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="16">
-        <v>9862402</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="16">
-        <v>2070000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" s="39">
-        <v>57310019</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="17">
-        <f>(C4+C4*C20/(1000-C20))/(1-C19)</f>
-        <v>2433828.0941362381</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="18">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="18">
-        <v>0.28199999999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C10" s="18">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C11" s="18">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C12" s="18">
-        <v>0.221</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B13" t="s">
-        <v>216</v>
-      </c>
-      <c r="C13" s="44">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B14" t="s">
-        <v>217</v>
-      </c>
-      <c r="C14" s="44">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B15" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C15" s="62">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B16" s="4"/>
-      <c r="C16" s="51"/>
-    </row>
-    <row r="17" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B17" s="4"/>
-      <c r="C17" s="51"/>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="B18" t="s">
-        <v>184</v>
-      </c>
-      <c r="C18" s="18">
-        <f>401/100</f>
-        <v>4.01</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19" s="18">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" t="s">
-        <v>104</v>
-      </c>
-      <c r="C20" s="18">
-        <v>22.4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" t="s">
-        <v>185</v>
-      </c>
-      <c r="C21" s="18">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" t="s">
-        <v>186</v>
-      </c>
-      <c r="C22" s="18">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" t="s">
-        <v>187</v>
-      </c>
-      <c r="C23" s="18">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="10"/>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" s="33">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="C27" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="C29" s="33">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" s="33">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="29"/>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B33" s="79" t="s">
-        <v>107</v>
-      </c>
-      <c r="C33" s="39">
-        <v>3032037</v>
-      </c>
-      <c r="D33" s="84"/>
-      <c r="E33" s="83"/>
-    </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="79" t="s">
-        <v>108</v>
-      </c>
-      <c r="C34" s="39">
-        <v>4756743</v>
-      </c>
-      <c r="D34" s="84"/>
-      <c r="E34" s="84"/>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="79" t="s">
-        <v>109</v>
-      </c>
-      <c r="C35" s="39">
-        <v>3406589</v>
-      </c>
-      <c r="D35" s="84"/>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="79" t="s">
-        <v>110</v>
-      </c>
-      <c r="C36" s="39">
-        <v>2174712</v>
-      </c>
-      <c r="D36" s="84"/>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="79"/>
-      <c r="C37" s="85"/>
-      <c r="D37" s="84"/>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="79"/>
-      <c r="C38" s="85"/>
-      <c r="D38" s="84"/>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="B39" s="79" t="s">
-        <v>107</v>
-      </c>
-      <c r="C39" s="37">
-        <f>C33-C45</f>
-        <v>2722830.7358748955</v>
-      </c>
-      <c r="D39" s="84"/>
-      <c r="E39" s="83"/>
-    </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="79" t="s">
-        <v>108</v>
-      </c>
-      <c r="C40" s="37">
-        <f t="shared" ref="C40:C42" si="0">C34-C46</f>
-        <v>3655781.3019787949</v>
-      </c>
-      <c r="D40" s="84"/>
-      <c r="E40" s="84"/>
-    </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="79" t="s">
-        <v>109</v>
-      </c>
-      <c r="C41" s="37">
-        <f t="shared" si="0"/>
-        <v>2593751.3208226422</v>
-      </c>
-      <c r="D41" s="84"/>
-    </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="79" t="s">
-        <v>110</v>
-      </c>
-      <c r="C42" s="37">
-        <f t="shared" si="0"/>
-        <v>1963889.5471874289</v>
-      </c>
-      <c r="D42" s="84"/>
-    </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="79"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="84"/>
-    </row>
-    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="36"/>
-      <c r="C44" s="38"/>
-    </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="B45" s="79" t="s">
-        <v>111</v>
-      </c>
-      <c r="C45" s="32">
-        <f>C51*$C$6</f>
-        <v>309206.26412510435</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="79" t="s">
-        <v>112</v>
-      </c>
-      <c r="C46" s="32">
-        <f t="shared" ref="C46:C48" si="1">C52*$C$6</f>
-        <v>1100961.6980212049</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="79" t="s">
-        <v>113</v>
-      </c>
-      <c r="C47" s="32">
-        <f t="shared" si="1"/>
-        <v>812837.6791773577</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="79" t="s">
-        <v>114</v>
-      </c>
-      <c r="C48" s="32">
-        <f t="shared" si="1"/>
-        <v>210822.45281257117</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B51" s="79" t="s">
-        <v>111</v>
-      </c>
-      <c r="C51" s="110">
-        <v>0.12704523580365737</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="79" t="s">
-        <v>112</v>
-      </c>
-      <c r="C52" s="110">
-        <v>0.4523580365736285</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="79" t="s">
-        <v>113</v>
-      </c>
-      <c r="C53" s="110">
-        <v>0.33397497593840231</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="79" t="s">
-        <v>114</v>
-      </c>
-      <c r="C54" s="110">
-        <v>8.662175168431184E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="10"/>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="147" t="s">
+        <v>278</v>
+      </c>
+      <c r="B1" s="147" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="147" t="s">
+        <v>283</v>
+      </c>
+      <c r="B2" s="149"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="147" t="s">
+        <v>284</v>
+      </c>
+      <c r="B3" s="150"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="39" x14ac:dyDescent="0.15">
+      <c r="A2" s="87" t="s">
+        <v>226</v>
+      </c>
+      <c r="B2" s="92" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2" s="118">
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="52" x14ac:dyDescent="0.15">
+      <c r="B3" s="88" t="s">
+        <v>228</v>
+      </c>
+      <c r="C3" s="118">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="52" x14ac:dyDescent="0.15">
+      <c r="B4" s="88" t="s">
+        <v>229</v>
+      </c>
+      <c r="C4" s="118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="39" x14ac:dyDescent="0.15">
+      <c r="B5" s="89" t="s">
+        <v>230</v>
+      </c>
+      <c r="C5" s="118">
+        <v>0.152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="52" x14ac:dyDescent="0.15">
+      <c r="B6" s="89" t="s">
+        <v>231</v>
+      </c>
+      <c r="C6" s="118">
+        <v>0.34200000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="52" x14ac:dyDescent="0.15">
+      <c r="B7" s="89" t="s">
+        <v>232</v>
+      </c>
+      <c r="C7" s="118">
+        <v>0.29899999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+      <c r="B8" s="90" t="s">
+        <v>233</v>
+      </c>
+      <c r="C8" s="118">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="52" x14ac:dyDescent="0.15">
+      <c r="B9" s="90" t="s">
+        <v>234</v>
+      </c>
+      <c r="C9" s="118">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="52" x14ac:dyDescent="0.15">
+      <c r="B10" s="90" t="s">
+        <v>235</v>
+      </c>
+      <c r="C10" s="118">
+        <v>0.14099999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C11" s="118"/>
+    </row>
+    <row r="12" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+      <c r="A12" s="87" t="s">
+        <v>236</v>
+      </c>
+      <c r="B12" s="91" t="s">
+        <v>237</v>
+      </c>
+      <c r="C12" s="118">
+        <v>0.20799999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+      <c r="B13" s="91" t="s">
+        <v>238</v>
+      </c>
+      <c r="C13" s="118">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+      <c r="B14" s="91" t="s">
+        <v>239</v>
+      </c>
+      <c r="C14" s="118">
+        <v>0.11899999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+      <c r="B15" s="91" t="s">
+        <v>240</v>
+      </c>
+      <c r="C15" s="118">
+        <v>0.63700000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G38"/>
   <sheetViews>
@@ -8600,10 +8672,10 @@
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C5" s="34"/>
       <c r="D5" s="11">
@@ -8618,7 +8690,7 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -8683,10 +8755,10 @@
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
@@ -8825,10 +8897,10 @@
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="10" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B23" s="93" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C23" s="94">
         <v>1</v>
@@ -8846,7 +8918,7 @@
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="93" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C24" s="94">
         <v>1</v>
@@ -8864,7 +8936,7 @@
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="93" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C25" s="94">
         <v>1</v>
@@ -8882,7 +8954,7 @@
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="96" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C26" s="94">
         <v>1</v>
@@ -8900,7 +8972,7 @@
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="96" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C27" s="94">
         <v>1</v>
@@ -8918,7 +8990,7 @@
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="96" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C28" s="94">
         <v>1</v>
@@ -8936,7 +9008,7 @@
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="97" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C29" s="94">
         <v>1</v>
@@ -8954,7 +9026,7 @@
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="97" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C30" s="94">
         <v>1</v>
@@ -8972,7 +9044,7 @@
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="97" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C31" s="94">
         <v>1</v>
@@ -9013,10 +9085,10 @@
     </row>
     <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="10" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B35" s="99" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C35" s="94">
         <v>1</v>
@@ -9034,7 +9106,7 @@
     </row>
     <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="99" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C36" s="94">
         <v>1</v>
@@ -9052,7 +9124,7 @@
     </row>
     <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="99" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C37" s="94">
         <v>1</v>
@@ -9070,7 +9142,7 @@
     </row>
     <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="99" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C38" s="94">
         <v>1</v>
@@ -9093,7 +9165,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -9171,7 +9243,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>14</v>
@@ -10069,7 +10141,7 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>14</v>
@@ -10968,13 +11040,13 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A46" s="10" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B46" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D46" s="4">
         <v>1</v>
@@ -11018,7 +11090,7 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C47" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D47" s="4">
         <v>1</v>
@@ -11065,7 +11137,7 @@
         <v>28</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D48" s="4">
         <v>1</v>
@@ -11109,7 +11181,7 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C49" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D49" s="4">
         <v>1</v>
@@ -11156,7 +11228,7 @@
         <v>30</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D50" s="4">
         <v>1</v>
@@ -11200,7 +11272,7 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C51" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D51" s="4">
         <v>1</v>
@@ -11247,7 +11319,7 @@
         <v>31</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D52" s="4">
         <v>1</v>
@@ -11291,7 +11363,7 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C53" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D53" s="4">
         <v>1</v>
@@ -11338,7 +11410,7 @@
         <v>35</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D54" s="4">
         <v>1</v>
@@ -11382,7 +11454,7 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C55" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D55" s="4">
         <v>1</v>
@@ -11430,7 +11502,7 @@
         <v>81</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D56" s="4">
         <v>1</v>
@@ -11474,7 +11546,7 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C57" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D57" s="4">
         <v>1</v>
@@ -11521,7 +11593,7 @@
         <v>82</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D58" s="4">
         <v>1</v>
@@ -11565,7 +11637,7 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C59" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D59" s="4">
         <v>1</v>
@@ -11612,7 +11684,7 @@
         <v>83</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D60" s="4">
         <v>1</v>
@@ -11656,7 +11728,7 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C61" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D61" s="4">
         <v>1</v>
@@ -11707,7 +11779,7 @@
         <v>36</v>
       </c>
       <c r="B64" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>37</v>
@@ -12423,7 +12495,7 @@
     </row>
     <row r="80" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B80" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>37</v>
@@ -12960,10 +13032,10 @@
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A94" s="10" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>37</v>
@@ -13149,7 +13221,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -13175,7 +13247,7 @@
         <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>6</v>
@@ -13195,7 +13267,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B2" t="s">
         <v>61</v>
@@ -13219,10 +13291,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C4">
         <v>1.024</v>
@@ -13353,7 +13425,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>136</v>
@@ -13456,7 +13528,7 @@
     </row>
     <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="54" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B18" s="53" t="s">
         <v>52</v>
@@ -13504,7 +13576,7 @@
         <v>145</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C21">
         <v>1.024</v>
@@ -13527,7 +13599,7 @@
         <v>146</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C23">
         <v>1.024</v>
@@ -13547,10 +13619,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="10" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B25" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C25" s="44">
         <v>1</v>
@@ -13575,7 +13647,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
@@ -14681,11 +14753,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
@@ -14696,13 +14763,18 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
@@ -14915,7 +14987,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -15107,7 +15179,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -15125,10 +15197,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15184,7 +15256,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -15204,7 +15276,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>48</v>
@@ -15492,7 +15564,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -15520,7 +15592,7 @@
         <v>48</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>6</v>
@@ -15564,7 +15636,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>76</v>
@@ -16623,7 +16695,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A27" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>93</v>
@@ -16819,7 +16891,447 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="86">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="16">
+        <v>9862402</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="16">
+        <v>2070000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="39">
+        <v>57310019</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="17">
+        <f>(C4+C4*C20/(1000-C20))/(1-C19)</f>
+        <v>2433828.0941362381</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="18">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="18">
+        <v>0.28199999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C10" s="18">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" s="18">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C12" s="18">
+        <v>0.221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>213</v>
+      </c>
+      <c r="C13" s="44">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>214</v>
+      </c>
+      <c r="C14" s="44">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B15" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C15" s="62">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B16" s="4"/>
+      <c r="C16" s="51"/>
+    </row>
+    <row r="17" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B17" s="4"/>
+      <c r="C17" s="51"/>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" t="s">
+        <v>184</v>
+      </c>
+      <c r="C18" s="18">
+        <f>401/100</f>
+        <v>4.01</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="18">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="18">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="126" t="s">
+        <v>285</v>
+      </c>
+      <c r="C21" s="18">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="126" t="s">
+        <v>286</v>
+      </c>
+      <c r="C22" s="18">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="126" t="s">
+        <v>287</v>
+      </c>
+      <c r="C23" s="18">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="10"/>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="33">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="33">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="33">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="29"/>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" s="79" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" s="39">
+        <v>3032037</v>
+      </c>
+      <c r="D33" s="84"/>
+      <c r="E33" s="83"/>
+    </row>
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="79" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" s="39">
+        <v>4756743</v>
+      </c>
+      <c r="D34" s="84"/>
+      <c r="E34" s="84"/>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="79" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" s="39">
+        <v>3406589</v>
+      </c>
+      <c r="D35" s="84"/>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="79" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="39">
+        <v>2174712</v>
+      </c>
+      <c r="D36" s="84"/>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="79"/>
+      <c r="C37" s="85"/>
+      <c r="D37" s="84"/>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="79"/>
+      <c r="C38" s="85"/>
+      <c r="D38" s="84"/>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B39" s="79" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39" s="37">
+        <f>C33-C45</f>
+        <v>2722830.7358748955</v>
+      </c>
+      <c r="D39" s="84"/>
+      <c r="E39" s="83"/>
+    </row>
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="79" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40" s="37">
+        <f t="shared" ref="C40:C42" si="0">C34-C46</f>
+        <v>3655781.3019787949</v>
+      </c>
+      <c r="D40" s="84"/>
+      <c r="E40" s="84"/>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="79" t="s">
+        <v>109</v>
+      </c>
+      <c r="C41" s="37">
+        <f t="shared" si="0"/>
+        <v>2593751.3208226422</v>
+      </c>
+      <c r="D41" s="84"/>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="79" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" s="37">
+        <f t="shared" si="0"/>
+        <v>1963889.5471874289</v>
+      </c>
+      <c r="D42" s="84"/>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="79"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="84"/>
+    </row>
+    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="36"/>
+      <c r="C44" s="38"/>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B45" s="79" t="s">
+        <v>111</v>
+      </c>
+      <c r="C45" s="32">
+        <f>C51*$C$6</f>
+        <v>309206.26412510435</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="79" t="s">
+        <v>112</v>
+      </c>
+      <c r="C46" s="32">
+        <f t="shared" ref="C46:C48" si="1">C52*$C$6</f>
+        <v>1100961.6980212049</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="79" t="s">
+        <v>113</v>
+      </c>
+      <c r="C47" s="32">
+        <f t="shared" si="1"/>
+        <v>812837.6791773577</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="79" t="s">
+        <v>114</v>
+      </c>
+      <c r="C48" s="32">
+        <f t="shared" si="1"/>
+        <v>210822.45281257117</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" s="79" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" s="110">
+        <v>0.12704523580365737</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="79" t="s">
+        <v>112</v>
+      </c>
+      <c r="C52" s="110">
+        <v>0.4523580365736285</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="79" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53" s="110">
+        <v>0.33397497593840231</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="79" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54" s="110">
+        <v>8.662175168431184E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -16841,7 +17353,7 @@
         <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>6</v>
@@ -16861,7 +17373,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B2" s="44" t="s">
         <v>148</v>
@@ -16884,7 +17396,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B4" s="45" t="s">
         <v>147</v>
@@ -16910,656 +17422,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:G1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="10" max="10" width="16.1640625" customWidth="1"/>
-    <col min="11" max="11" width="17.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
-        <v>2017</v>
-      </c>
-      <c r="B2" s="20">
-        <v>2110000</v>
-      </c>
-      <c r="C2" s="21">
-        <v>9862402</v>
-      </c>
-      <c r="D2" s="21">
-        <v>3032037</v>
-      </c>
-      <c r="E2" s="21">
-        <v>4756743</v>
-      </c>
-      <c r="F2" s="21">
-        <v>3406589</v>
-      </c>
-      <c r="G2" s="21">
-        <v>2174712</v>
-      </c>
-      <c r="H2" s="22">
-        <f>D2+E2+F2+G2</f>
-        <v>13370081</v>
-      </c>
-      <c r="I2" s="23">
-        <f>(B2 + 'Baseline year demographics'!$C$20*B2/(1000-'Baseline year demographics'!$C$21))/(1-'Baseline year demographics'!$C$19)</f>
-        <v>2481006.778661951</v>
-      </c>
-      <c r="J2" s="24">
-        <f t="shared" ref="J2:J15" si="0">D2/H2</f>
-        <v>0.22677775848927167</v>
-      </c>
-      <c r="K2" s="22">
-        <f>H2-I2</f>
-        <v>10889074.221338049</v>
-      </c>
-      <c r="L2" s="40">
-        <v>57310019</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
-        <v>2018</v>
-      </c>
-      <c r="B3" s="20">
-        <v>2150000</v>
-      </c>
-      <c r="C3" s="21">
-        <v>10050371</v>
-      </c>
-      <c r="D3" s="21">
-        <v>3164674</v>
-      </c>
-      <c r="E3" s="21">
-        <v>4882700</v>
-      </c>
-      <c r="F3" s="21">
-        <v>3520083</v>
-      </c>
-      <c r="G3" s="21">
-        <v>2275309</v>
-      </c>
-      <c r="H3" s="22">
-        <f t="shared" ref="H3:H15" si="1">D3+E3+F3+G3</f>
-        <v>13842766</v>
-      </c>
-      <c r="I3" s="23">
-        <f>(B3 + 'Baseline year demographics'!$C$20*B3/(1000-'Baseline year demographics'!$C$21))/(1-'Baseline year demographics'!$C$19)</f>
-        <v>2528040.0825228412</v>
-      </c>
-      <c r="J3" s="24">
-        <f t="shared" si="0"/>
-        <v>0.22861572607671038</v>
-      </c>
-      <c r="K3" s="22">
-        <f t="shared" ref="K3:K15" si="2">H3-I3</f>
-        <v>11314725.917477159</v>
-      </c>
-      <c r="L3" s="40">
-        <v>59091392</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
-        <v>2019</v>
-      </c>
-      <c r="B4" s="20">
-        <v>2200000</v>
-      </c>
-      <c r="C4" s="21">
-        <v>10237786</v>
-      </c>
-      <c r="D4" s="21">
-        <v>3296354</v>
-      </c>
-      <c r="E4" s="21">
-        <v>5018666</v>
-      </c>
-      <c r="F4" s="21">
-        <v>3634703</v>
-      </c>
-      <c r="G4" s="21">
-        <v>2379017</v>
-      </c>
-      <c r="H4" s="22">
-        <f t="shared" si="1"/>
-        <v>14328740</v>
-      </c>
-      <c r="I4" s="23">
-        <f>(B4 + 'Baseline year demographics'!$C$20*B4/(1000-'Baseline year demographics'!$C$21))/(1-'Baseline year demographics'!$C$19)</f>
-        <v>2586831.7123489534</v>
-      </c>
-      <c r="J4" s="24">
-        <f t="shared" si="0"/>
-        <v>0.23005190965849057</v>
-      </c>
-      <c r="K4" s="22">
-        <f t="shared" si="2"/>
-        <v>11741908.287651047</v>
-      </c>
-      <c r="L4" s="40">
-        <v>60913557</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B5" s="20">
-        <v>2240000</v>
-      </c>
-      <c r="C5" s="21">
-        <v>10438537</v>
-      </c>
-      <c r="D5" s="21">
-        <v>3418969</v>
-      </c>
-      <c r="E5" s="21">
-        <v>5168014</v>
-      </c>
-      <c r="F5" s="21">
-        <v>3750324</v>
-      </c>
-      <c r="G5" s="21">
-        <v>2484409</v>
-      </c>
-      <c r="H5" s="22">
-        <f t="shared" si="1"/>
-        <v>14821716</v>
-      </c>
-      <c r="I5" s="23">
-        <f>(B5 + 'Baseline year demographics'!$C$20*B5/(1000-'Baseline year demographics'!$C$21))/(1-'Baseline year demographics'!$C$19)</f>
-        <v>2633865.0162098436</v>
-      </c>
-      <c r="J5" s="24">
-        <f t="shared" si="0"/>
-        <v>0.23067295311824892</v>
-      </c>
-      <c r="K5" s="22">
-        <f t="shared" si="2"/>
-        <v>12187850.983790156</v>
-      </c>
-      <c r="L5" s="40">
-        <v>62774619</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B6" s="20">
-        <v>2280000</v>
-      </c>
-      <c r="C6" s="21">
-        <v>10636534</v>
-      </c>
-      <c r="D6" s="21">
-        <v>3532758</v>
-      </c>
-      <c r="E6" s="21">
-        <v>5332455</v>
-      </c>
-      <c r="F6" s="21">
-        <v>3869436</v>
-      </c>
-      <c r="G6" s="21">
-        <v>2592003</v>
-      </c>
-      <c r="H6" s="22">
-        <f t="shared" si="1"/>
-        <v>15326652</v>
-      </c>
-      <c r="I6" s="23">
-        <f>(B6 + 'Baseline year demographics'!$C$20*B6/(1000-'Baseline year demographics'!$C$21))/(1-'Baseline year demographics'!$C$19)</f>
-        <v>2680898.3200707338</v>
-      </c>
-      <c r="J6" s="24">
-        <f t="shared" si="0"/>
-        <v>0.23049769773594389</v>
-      </c>
-      <c r="K6" s="22">
-        <f t="shared" si="2"/>
-        <v>12645753.679929266</v>
-      </c>
-      <c r="L6" s="40">
-        <v>64673854</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B7" s="20">
-        <v>2330000</v>
-      </c>
-      <c r="C7" s="21">
-        <v>10854967</v>
-      </c>
-      <c r="D7" s="21">
-        <v>3637390</v>
-      </c>
-      <c r="E7" s="21">
-        <v>5508952</v>
-      </c>
-      <c r="F7" s="21">
-        <v>3990560</v>
-      </c>
-      <c r="G7" s="21">
-        <v>2701259</v>
-      </c>
-      <c r="H7" s="22">
-        <f t="shared" si="1"/>
-        <v>15838161</v>
-      </c>
-      <c r="I7" s="23">
-        <f>(B7 + 'Baseline year demographics'!$C$20*B7/(1000-'Baseline year demographics'!$C$21))/(1-'Baseline year demographics'!$C$19)</f>
-        <v>2739689.9498968464</v>
-      </c>
-      <c r="J7" s="24">
-        <f t="shared" si="0"/>
-        <v>0.22965987023367171</v>
-      </c>
-      <c r="K7" s="22">
-        <f t="shared" si="2"/>
-        <v>13098471.050103154</v>
-      </c>
-      <c r="L7" s="40">
-        <v>66612147</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
-        <v>2023</v>
-      </c>
-      <c r="B8" s="20">
-        <v>2380000</v>
-      </c>
-      <c r="C8" s="21">
-        <v>11089897</v>
-      </c>
-      <c r="D8" s="21">
-        <v>3737403</v>
-      </c>
-      <c r="E8" s="21">
-        <v>5696990</v>
-      </c>
-      <c r="F8" s="21">
-        <v>4112898</v>
-      </c>
-      <c r="G8" s="21">
-        <v>2811667</v>
-      </c>
-      <c r="H8" s="22">
-        <f t="shared" si="1"/>
-        <v>16358958</v>
-      </c>
-      <c r="I8" s="23">
-        <f>(B8 + 'Baseline year demographics'!$C$20*B8/(1000-'Baseline year demographics'!$C$21))/(1-'Baseline year demographics'!$C$19)</f>
-        <v>2798481.5797229591</v>
-      </c>
-      <c r="J8" s="24">
-        <f t="shared" si="0"/>
-        <v>0.22846216733364069</v>
-      </c>
-      <c r="K8" s="22">
-        <f t="shared" si="2"/>
-        <v>13560476.42027704</v>
-      </c>
-      <c r="L8" s="40">
-        <v>68591196</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
-        <v>2024</v>
-      </c>
-      <c r="B9" s="20">
-        <v>2420000</v>
-      </c>
-      <c r="C9" s="21">
-        <v>11331595</v>
-      </c>
-      <c r="D9" s="21">
-        <v>3840674</v>
-      </c>
-      <c r="E9" s="21">
-        <v>5895615</v>
-      </c>
-      <c r="F9" s="21">
-        <v>4235117</v>
-      </c>
-      <c r="G9" s="21">
-        <v>2922818</v>
-      </c>
-      <c r="H9" s="22">
-        <f t="shared" si="1"/>
-        <v>16894224</v>
-      </c>
-      <c r="I9" s="23">
-        <f>(B9 + 'Baseline year demographics'!$C$20*B9/(1000-'Baseline year demographics'!$C$21))/(1-'Baseline year demographics'!$C$19)</f>
-        <v>2845514.8835838488</v>
-      </c>
-      <c r="J9" s="24">
-        <f t="shared" si="0"/>
-        <v>0.22733651453893355</v>
-      </c>
-      <c r="K9" s="22">
-        <f t="shared" si="2"/>
-        <v>14048709.116416151</v>
-      </c>
-      <c r="L9" s="40">
-        <v>70613532</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
-        <v>2025</v>
-      </c>
-      <c r="B10" s="20">
-        <v>2480000</v>
-      </c>
-      <c r="C10" s="21">
-        <v>11574198</v>
-      </c>
-      <c r="D10" s="21">
-        <v>3951644</v>
-      </c>
-      <c r="E10" s="21">
-        <v>6103745</v>
-      </c>
-      <c r="F10" s="21">
-        <v>4356516</v>
-      </c>
-      <c r="G10" s="21">
-        <v>3034340</v>
-      </c>
-      <c r="H10" s="22">
-        <f t="shared" si="1"/>
-        <v>17446245</v>
-      </c>
-      <c r="I10" s="23">
-        <f>(B10 + 'Baseline year demographics'!$C$20*B10/(1000-'Baseline year demographics'!$C$21))/(1-'Baseline year demographics'!$C$19)</f>
-        <v>2916064.8393751844</v>
-      </c>
-      <c r="J10" s="24">
-        <f t="shared" si="0"/>
-        <v>0.22650398409514483</v>
-      </c>
-      <c r="K10" s="22">
-        <f t="shared" si="2"/>
-        <v>14530180.160624815</v>
-      </c>
-      <c r="L10" s="40">
-        <v>72681070</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
-        <v>2026</v>
-      </c>
-      <c r="B11" s="20">
-        <v>2530000</v>
-      </c>
-      <c r="C11" s="21">
-        <v>11838769</v>
-      </c>
-      <c r="D11" s="21">
-        <v>4065313</v>
-      </c>
-      <c r="E11" s="21">
-        <v>6319831</v>
-      </c>
-      <c r="F11" s="21">
-        <v>4477188</v>
-      </c>
-      <c r="G11" s="21">
-        <v>3144612</v>
-      </c>
-      <c r="H11" s="22">
-        <f t="shared" si="1"/>
-        <v>18006944</v>
-      </c>
-      <c r="I11" s="23">
-        <f>(B11 + 'Baseline year demographics'!$C$20*B11/(1000-'Baseline year demographics'!$C$21))/(1-'Baseline year demographics'!$C$19)</f>
-        <v>2974856.4692012966</v>
-      </c>
-      <c r="J11" s="24">
-        <f t="shared" si="0"/>
-        <v>0.22576362763165145</v>
-      </c>
-      <c r="K11" s="22">
-        <f t="shared" si="2"/>
-        <v>15032087.530798703</v>
-      </c>
-      <c r="L11" s="40">
-        <v>74794078</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
-        <v>2027</v>
-      </c>
-      <c r="B12" s="20">
-        <v>2580000</v>
-      </c>
-      <c r="C12" s="21">
-        <v>12092177</v>
-      </c>
-      <c r="D12" s="21">
-        <v>4185562</v>
-      </c>
-      <c r="E12" s="21">
-        <v>6545116</v>
-      </c>
-      <c r="F12" s="21">
-        <v>4597739</v>
-      </c>
-      <c r="G12" s="21">
-        <v>3255252</v>
-      </c>
-      <c r="H12" s="22">
-        <f t="shared" si="1"/>
-        <v>18583669</v>
-      </c>
-      <c r="I12" s="23">
-        <f>(B12 + 'Baseline year demographics'!$C$20*B12/(1000-'Baseline year demographics'!$C$21))/(1-'Baseline year demographics'!$C$19)</f>
-        <v>3033648.0990274092</v>
-      </c>
-      <c r="J12" s="24">
-        <f t="shared" si="0"/>
-        <v>0.22522796763114969</v>
-      </c>
-      <c r="K12" s="22">
-        <f t="shared" si="2"/>
-        <v>15550020.90097259</v>
-      </c>
-      <c r="L12" s="40">
-        <v>76952218</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
-        <v>2028</v>
-      </c>
-      <c r="B13" s="20">
-        <v>2630000</v>
-      </c>
-      <c r="C13" s="21">
-        <v>12338218</v>
-      </c>
-      <c r="D13" s="21">
-        <v>4309237</v>
-      </c>
-      <c r="E13" s="21">
-        <v>6776307</v>
-      </c>
-      <c r="F13" s="21">
-        <v>4722286</v>
-      </c>
-      <c r="G13" s="21">
-        <v>3366750</v>
-      </c>
-      <c r="H13" s="22">
-        <f t="shared" si="1"/>
-        <v>19174580</v>
-      </c>
-      <c r="I13" s="23">
-        <f>(B13 + 'Baseline year demographics'!$C$20*B13/(1000-'Baseline year demographics'!$C$21))/(1-'Baseline year demographics'!$C$19)</f>
-        <v>3092439.7288535219</v>
-      </c>
-      <c r="J13" s="24">
-        <f t="shared" si="0"/>
-        <v>0.22473696946686708</v>
-      </c>
-      <c r="K13" s="22">
-        <f t="shared" si="2"/>
-        <v>16082140.271146478</v>
-      </c>
-      <c r="L13" s="40">
-        <v>79155997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
-        <v>2029</v>
-      </c>
-      <c r="B14" s="20">
-        <v>2690000</v>
-      </c>
-      <c r="C14" s="21">
-        <v>12584924</v>
-      </c>
-      <c r="D14" s="21">
-        <v>4430738</v>
-      </c>
-      <c r="E14" s="21">
-        <v>7008703</v>
-      </c>
-      <c r="F14" s="21">
-        <v>4856898</v>
-      </c>
-      <c r="G14" s="21">
-        <v>3479917</v>
-      </c>
-      <c r="H14" s="22">
-        <f t="shared" si="1"/>
-        <v>19776256</v>
-      </c>
-      <c r="I14" s="23">
-        <f>(B14 + 'Baseline year demographics'!$C$20*B14/(1000-'Baseline year demographics'!$C$21))/(1-'Baseline year demographics'!$C$19)</f>
-        <v>3162989.684644857</v>
-      </c>
-      <c r="J14" s="24">
-        <f t="shared" si="0"/>
-        <v>0.22404331740042199</v>
-      </c>
-      <c r="K14" s="22">
-        <f t="shared" si="2"/>
-        <v>16613266.315355143</v>
-      </c>
-      <c r="L14" s="40">
-        <v>81405880</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>2030</v>
-      </c>
-      <c r="B15" s="20">
-        <v>2740000</v>
-      </c>
-      <c r="C15" s="21">
-        <v>12839335</v>
-      </c>
-      <c r="D15" s="21">
-        <v>4546624</v>
-      </c>
-      <c r="E15" s="21">
-        <v>7239465</v>
-      </c>
-      <c r="F15" s="21">
-        <v>5005361</v>
-      </c>
-      <c r="G15" s="21">
-        <v>3595278</v>
-      </c>
-      <c r="H15" s="22">
-        <f t="shared" si="1"/>
-        <v>20386728</v>
-      </c>
-      <c r="I15" s="23">
-        <f>(B15 + 'Baseline year demographics'!$C$20*B15/(1000-'Baseline year demographics'!$C$21))/(1-'Baseline year demographics'!$C$19)</f>
-        <v>3221781.3144709696</v>
-      </c>
-      <c r="J15" s="24">
-        <f t="shared" si="0"/>
-        <v>0.22301881891002814</v>
-      </c>
-      <c r="K15" s="22">
-        <f t="shared" si="2"/>
-        <v>17164946.685529031</v>
-      </c>
-      <c r="L15" s="40">
-        <v>83702053</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -17583,7 +17446,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
@@ -17612,7 +17475,7 @@
         <v>47</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>98</v>
@@ -17684,7 +17547,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="11"/>
       <c r="B5" s="44" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C5" s="45" t="s">
         <v>98</v>
@@ -18220,10 +18083,10 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>98</v>
@@ -18287,10 +18150,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>98</v>
@@ -18354,10 +18217,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>98</v>
@@ -18421,10 +18284,10 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>98</v>
@@ -18488,10 +18351,10 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>98</v>
@@ -18558,7 +18421,7 @@
         <v>136</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>98</v>
@@ -18684,10 +18547,10 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>98</v>
@@ -18730,10 +18593,10 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>98</v>
@@ -18781,7 +18644,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -18986,7 +18849,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -19007,7 +18870,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
@@ -19031,7 +18894,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B2" s="126" t="s">
         <v>84</v>
@@ -19073,7 +18936,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -19116,7 +18979,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -19162,7 +19025,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -19184,25 +19047,25 @@
   <sheetData>
     <row r="1" spans="1:6" ht="65" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B1" s="103" t="s">
         <v>48</v>
       </c>
       <c r="C1" s="104" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D1" s="104" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E1" s="104" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B2" s="73" t="s">
         <v>51</v>
@@ -19242,7 +19105,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:O53"/>
   <sheetViews>
@@ -19267,7 +19130,7 @@
         <v>75</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>6</v>
@@ -20863,7 +20726,7 @@
     </row>
     <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="44" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C37" s="3">
         <v>0</v>
@@ -20924,7 +20787,7 @@
         <v>78</v>
       </c>
       <c r="B39" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C39" s="3">
         <v>1</v>
@@ -20968,7 +20831,7 @@
     </row>
     <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C40" s="3">
         <v>1</v>
@@ -21012,7 +20875,7 @@
     </row>
     <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C41" s="3">
         <v>1</v>
@@ -21056,7 +20919,7 @@
     </row>
     <row r="42" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C42" s="3">
         <v>1</v>
@@ -21100,7 +20963,7 @@
     </row>
     <row r="43" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C43" s="3">
         <v>1</v>
@@ -21144,7 +21007,7 @@
     </row>
     <row r="44" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C44" s="3">
         <v>1</v>
@@ -21188,7 +21051,7 @@
     </row>
     <row r="45" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C45" s="3">
         <v>1</v>
@@ -21232,7 +21095,7 @@
     </row>
     <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C46" s="3">
         <v>0</v>
@@ -21276,7 +21139,7 @@
     </row>
     <row r="47" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C47" s="3">
         <v>0</v>
@@ -21320,7 +21183,7 @@
     </row>
     <row r="48" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C48" s="3">
         <v>0</v>
@@ -21636,7 +21499,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:O56"/>
   <sheetViews>
@@ -21661,7 +21524,7 @@
         <v>75</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>6</v>
@@ -23331,7 +23194,7 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B40" s="11" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C40" s="43">
         <v>0</v>
@@ -23394,7 +23257,7 @@
         <v>78</v>
       </c>
       <c r="B42" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C42" s="43">
         <v>1</v>
@@ -23438,7 +23301,7 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C43" s="43">
         <v>1</v>
@@ -23482,7 +23345,7 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C44" s="43">
         <v>1</v>
@@ -23526,7 +23389,7 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C45" s="43">
         <v>1</v>
@@ -23570,7 +23433,7 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C46" s="43">
         <v>1</v>
@@ -23614,7 +23477,7 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C47" s="43">
         <v>1</v>
@@ -23658,7 +23521,7 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C48" s="43">
         <v>1</v>
@@ -23702,7 +23565,7 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B49" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C49" s="43">
         <v>0</v>
@@ -23746,7 +23609,7 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B50" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C50" s="43">
         <v>0</v>
@@ -23790,7 +23653,7 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B51" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C51" s="43">
         <v>0</v>
@@ -24058,7 +23921,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:C40"/>
   <sheetViews>
@@ -24075,13 +23938,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -24237,7 +24100,7 @@
         <v>123</v>
       </c>
       <c r="B29" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
@@ -24312,7 +24175,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:K51"/>
   <sheetViews>
@@ -24337,37 +24200,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>36</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
@@ -24380,7 +24243,7 @@
     </row>
     <row r="3" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="66" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="K3" t="s">
         <v>161</v>
@@ -24388,7 +24251,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H4" t="s">
         <v>161</v>
@@ -24612,7 +24475,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H29" t="s">
         <v>161</v>
@@ -24620,7 +24483,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H30" t="s">
         <v>161</v>
@@ -24650,7 +24513,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G33" t="s">
         <v>161</v>
@@ -24740,7 +24603,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G42" t="s">
         <v>161</v>
@@ -24751,7 +24614,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G43" t="s">
         <v>161</v>
@@ -24762,7 +24625,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G44" t="s">
         <v>161</v>
@@ -24773,7 +24636,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G45" t="s">
         <v>161</v>
@@ -24784,7 +24647,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G46" t="s">
         <v>161</v>
@@ -24795,7 +24658,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H47" t="s">
         <v>161</v>
@@ -24853,7 +24716,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
@@ -24878,37 +24741,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>36</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
@@ -25153,7 +25016,656 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="16.1640625" customWidth="1"/>
+    <col min="11" max="11" width="17.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B2" s="20">
+        <v>2110000</v>
+      </c>
+      <c r="C2" s="21">
+        <v>9862402</v>
+      </c>
+      <c r="D2" s="21">
+        <v>3032037</v>
+      </c>
+      <c r="E2" s="21">
+        <v>4756743</v>
+      </c>
+      <c r="F2" s="21">
+        <v>3406589</v>
+      </c>
+      <c r="G2" s="21">
+        <v>2174712</v>
+      </c>
+      <c r="H2" s="22">
+        <f>D2+E2+F2+G2</f>
+        <v>13370081</v>
+      </c>
+      <c r="I2" s="23">
+        <f>(B2 + 'Baseline year demographics'!$C$20*B2/(1000-'Baseline year demographics'!$C$21))/(1-'Baseline year demographics'!$C$19)</f>
+        <v>2481006.778661951</v>
+      </c>
+      <c r="J2" s="24">
+        <f t="shared" ref="J2:J15" si="0">D2/H2</f>
+        <v>0.22677775848927167</v>
+      </c>
+      <c r="K2" s="22">
+        <f>H2-I2</f>
+        <v>10889074.221338049</v>
+      </c>
+      <c r="L2" s="40">
+        <v>57310019</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B3" s="20">
+        <v>2150000</v>
+      </c>
+      <c r="C3" s="21">
+        <v>10050371</v>
+      </c>
+      <c r="D3" s="21">
+        <v>3164674</v>
+      </c>
+      <c r="E3" s="21">
+        <v>4882700</v>
+      </c>
+      <c r="F3" s="21">
+        <v>3520083</v>
+      </c>
+      <c r="G3" s="21">
+        <v>2275309</v>
+      </c>
+      <c r="H3" s="22">
+        <f t="shared" ref="H3:H15" si="1">D3+E3+F3+G3</f>
+        <v>13842766</v>
+      </c>
+      <c r="I3" s="23">
+        <f>(B3 + 'Baseline year demographics'!$C$20*B3/(1000-'Baseline year demographics'!$C$21))/(1-'Baseline year demographics'!$C$19)</f>
+        <v>2528040.0825228412</v>
+      </c>
+      <c r="J3" s="24">
+        <f t="shared" si="0"/>
+        <v>0.22861572607671038</v>
+      </c>
+      <c r="K3" s="22">
+        <f t="shared" ref="K3:K15" si="2">H3-I3</f>
+        <v>11314725.917477159</v>
+      </c>
+      <c r="L3" s="40">
+        <v>59091392</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B4" s="20">
+        <v>2200000</v>
+      </c>
+      <c r="C4" s="21">
+        <v>10237786</v>
+      </c>
+      <c r="D4" s="21">
+        <v>3296354</v>
+      </c>
+      <c r="E4" s="21">
+        <v>5018666</v>
+      </c>
+      <c r="F4" s="21">
+        <v>3634703</v>
+      </c>
+      <c r="G4" s="21">
+        <v>2379017</v>
+      </c>
+      <c r="H4" s="22">
+        <f t="shared" si="1"/>
+        <v>14328740</v>
+      </c>
+      <c r="I4" s="23">
+        <f>(B4 + 'Baseline year demographics'!$C$20*B4/(1000-'Baseline year demographics'!$C$21))/(1-'Baseline year demographics'!$C$19)</f>
+        <v>2586831.7123489534</v>
+      </c>
+      <c r="J4" s="24">
+        <f t="shared" si="0"/>
+        <v>0.23005190965849057</v>
+      </c>
+      <c r="K4" s="22">
+        <f t="shared" si="2"/>
+        <v>11741908.287651047</v>
+      </c>
+      <c r="L4" s="40">
+        <v>60913557</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B5" s="20">
+        <v>2240000</v>
+      </c>
+      <c r="C5" s="21">
+        <v>10438537</v>
+      </c>
+      <c r="D5" s="21">
+        <v>3418969</v>
+      </c>
+      <c r="E5" s="21">
+        <v>5168014</v>
+      </c>
+      <c r="F5" s="21">
+        <v>3750324</v>
+      </c>
+      <c r="G5" s="21">
+        <v>2484409</v>
+      </c>
+      <c r="H5" s="22">
+        <f t="shared" si="1"/>
+        <v>14821716</v>
+      </c>
+      <c r="I5" s="23">
+        <f>(B5 + 'Baseline year demographics'!$C$20*B5/(1000-'Baseline year demographics'!$C$21))/(1-'Baseline year demographics'!$C$19)</f>
+        <v>2633865.0162098436</v>
+      </c>
+      <c r="J5" s="24">
+        <f t="shared" si="0"/>
+        <v>0.23067295311824892</v>
+      </c>
+      <c r="K5" s="22">
+        <f t="shared" si="2"/>
+        <v>12187850.983790156</v>
+      </c>
+      <c r="L5" s="40">
+        <v>62774619</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B6" s="20">
+        <v>2280000</v>
+      </c>
+      <c r="C6" s="21">
+        <v>10636534</v>
+      </c>
+      <c r="D6" s="21">
+        <v>3532758</v>
+      </c>
+      <c r="E6" s="21">
+        <v>5332455</v>
+      </c>
+      <c r="F6" s="21">
+        <v>3869436</v>
+      </c>
+      <c r="G6" s="21">
+        <v>2592003</v>
+      </c>
+      <c r="H6" s="22">
+        <f t="shared" si="1"/>
+        <v>15326652</v>
+      </c>
+      <c r="I6" s="23">
+        <f>(B6 + 'Baseline year demographics'!$C$20*B6/(1000-'Baseline year demographics'!$C$21))/(1-'Baseline year demographics'!$C$19)</f>
+        <v>2680898.3200707338</v>
+      </c>
+      <c r="J6" s="24">
+        <f t="shared" si="0"/>
+        <v>0.23049769773594389</v>
+      </c>
+      <c r="K6" s="22">
+        <f t="shared" si="2"/>
+        <v>12645753.679929266</v>
+      </c>
+      <c r="L6" s="40">
+        <v>64673854</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B7" s="20">
+        <v>2330000</v>
+      </c>
+      <c r="C7" s="21">
+        <v>10854967</v>
+      </c>
+      <c r="D7" s="21">
+        <v>3637390</v>
+      </c>
+      <c r="E7" s="21">
+        <v>5508952</v>
+      </c>
+      <c r="F7" s="21">
+        <v>3990560</v>
+      </c>
+      <c r="G7" s="21">
+        <v>2701259</v>
+      </c>
+      <c r="H7" s="22">
+        <f t="shared" si="1"/>
+        <v>15838161</v>
+      </c>
+      <c r="I7" s="23">
+        <f>(B7 + 'Baseline year demographics'!$C$20*B7/(1000-'Baseline year demographics'!$C$21))/(1-'Baseline year demographics'!$C$19)</f>
+        <v>2739689.9498968464</v>
+      </c>
+      <c r="J7" s="24">
+        <f t="shared" si="0"/>
+        <v>0.22965987023367171</v>
+      </c>
+      <c r="K7" s="22">
+        <f t="shared" si="2"/>
+        <v>13098471.050103154</v>
+      </c>
+      <c r="L7" s="40">
+        <v>66612147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B8" s="20">
+        <v>2380000</v>
+      </c>
+      <c r="C8" s="21">
+        <v>11089897</v>
+      </c>
+      <c r="D8" s="21">
+        <v>3737403</v>
+      </c>
+      <c r="E8" s="21">
+        <v>5696990</v>
+      </c>
+      <c r="F8" s="21">
+        <v>4112898</v>
+      </c>
+      <c r="G8" s="21">
+        <v>2811667</v>
+      </c>
+      <c r="H8" s="22">
+        <f t="shared" si="1"/>
+        <v>16358958</v>
+      </c>
+      <c r="I8" s="23">
+        <f>(B8 + 'Baseline year demographics'!$C$20*B8/(1000-'Baseline year demographics'!$C$21))/(1-'Baseline year demographics'!$C$19)</f>
+        <v>2798481.5797229591</v>
+      </c>
+      <c r="J8" s="24">
+        <f t="shared" si="0"/>
+        <v>0.22846216733364069</v>
+      </c>
+      <c r="K8" s="22">
+        <f t="shared" si="2"/>
+        <v>13560476.42027704</v>
+      </c>
+      <c r="L8" s="40">
+        <v>68591196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B9" s="20">
+        <v>2420000</v>
+      </c>
+      <c r="C9" s="21">
+        <v>11331595</v>
+      </c>
+      <c r="D9" s="21">
+        <v>3840674</v>
+      </c>
+      <c r="E9" s="21">
+        <v>5895615</v>
+      </c>
+      <c r="F9" s="21">
+        <v>4235117</v>
+      </c>
+      <c r="G9" s="21">
+        <v>2922818</v>
+      </c>
+      <c r="H9" s="22">
+        <f t="shared" si="1"/>
+        <v>16894224</v>
+      </c>
+      <c r="I9" s="23">
+        <f>(B9 + 'Baseline year demographics'!$C$20*B9/(1000-'Baseline year demographics'!$C$21))/(1-'Baseline year demographics'!$C$19)</f>
+        <v>2845514.8835838488</v>
+      </c>
+      <c r="J9" s="24">
+        <f t="shared" si="0"/>
+        <v>0.22733651453893355</v>
+      </c>
+      <c r="K9" s="22">
+        <f t="shared" si="2"/>
+        <v>14048709.116416151</v>
+      </c>
+      <c r="L9" s="40">
+        <v>70613532</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B10" s="20">
+        <v>2480000</v>
+      </c>
+      <c r="C10" s="21">
+        <v>11574198</v>
+      </c>
+      <c r="D10" s="21">
+        <v>3951644</v>
+      </c>
+      <c r="E10" s="21">
+        <v>6103745</v>
+      </c>
+      <c r="F10" s="21">
+        <v>4356516</v>
+      </c>
+      <c r="G10" s="21">
+        <v>3034340</v>
+      </c>
+      <c r="H10" s="22">
+        <f t="shared" si="1"/>
+        <v>17446245</v>
+      </c>
+      <c r="I10" s="23">
+        <f>(B10 + 'Baseline year demographics'!$C$20*B10/(1000-'Baseline year demographics'!$C$21))/(1-'Baseline year demographics'!$C$19)</f>
+        <v>2916064.8393751844</v>
+      </c>
+      <c r="J10" s="24">
+        <f t="shared" si="0"/>
+        <v>0.22650398409514483</v>
+      </c>
+      <c r="K10" s="22">
+        <f t="shared" si="2"/>
+        <v>14530180.160624815</v>
+      </c>
+      <c r="L10" s="40">
+        <v>72681070</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>2026</v>
+      </c>
+      <c r="B11" s="20">
+        <v>2530000</v>
+      </c>
+      <c r="C11" s="21">
+        <v>11838769</v>
+      </c>
+      <c r="D11" s="21">
+        <v>4065313</v>
+      </c>
+      <c r="E11" s="21">
+        <v>6319831</v>
+      </c>
+      <c r="F11" s="21">
+        <v>4477188</v>
+      </c>
+      <c r="G11" s="21">
+        <v>3144612</v>
+      </c>
+      <c r="H11" s="22">
+        <f t="shared" si="1"/>
+        <v>18006944</v>
+      </c>
+      <c r="I11" s="23">
+        <f>(B11 + 'Baseline year demographics'!$C$20*B11/(1000-'Baseline year demographics'!$C$21))/(1-'Baseline year demographics'!$C$19)</f>
+        <v>2974856.4692012966</v>
+      </c>
+      <c r="J11" s="24">
+        <f t="shared" si="0"/>
+        <v>0.22576362763165145</v>
+      </c>
+      <c r="K11" s="22">
+        <f t="shared" si="2"/>
+        <v>15032087.530798703</v>
+      </c>
+      <c r="L11" s="40">
+        <v>74794078</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>2027</v>
+      </c>
+      <c r="B12" s="20">
+        <v>2580000</v>
+      </c>
+      <c r="C12" s="21">
+        <v>12092177</v>
+      </c>
+      <c r="D12" s="21">
+        <v>4185562</v>
+      </c>
+      <c r="E12" s="21">
+        <v>6545116</v>
+      </c>
+      <c r="F12" s="21">
+        <v>4597739</v>
+      </c>
+      <c r="G12" s="21">
+        <v>3255252</v>
+      </c>
+      <c r="H12" s="22">
+        <f t="shared" si="1"/>
+        <v>18583669</v>
+      </c>
+      <c r="I12" s="23">
+        <f>(B12 + 'Baseline year demographics'!$C$20*B12/(1000-'Baseline year demographics'!$C$21))/(1-'Baseline year demographics'!$C$19)</f>
+        <v>3033648.0990274092</v>
+      </c>
+      <c r="J12" s="24">
+        <f t="shared" si="0"/>
+        <v>0.22522796763114969</v>
+      </c>
+      <c r="K12" s="22">
+        <f t="shared" si="2"/>
+        <v>15550020.90097259</v>
+      </c>
+      <c r="L12" s="40">
+        <v>76952218</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>2028</v>
+      </c>
+      <c r="B13" s="20">
+        <v>2630000</v>
+      </c>
+      <c r="C13" s="21">
+        <v>12338218</v>
+      </c>
+      <c r="D13" s="21">
+        <v>4309237</v>
+      </c>
+      <c r="E13" s="21">
+        <v>6776307</v>
+      </c>
+      <c r="F13" s="21">
+        <v>4722286</v>
+      </c>
+      <c r="G13" s="21">
+        <v>3366750</v>
+      </c>
+      <c r="H13" s="22">
+        <f t="shared" si="1"/>
+        <v>19174580</v>
+      </c>
+      <c r="I13" s="23">
+        <f>(B13 + 'Baseline year demographics'!$C$20*B13/(1000-'Baseline year demographics'!$C$21))/(1-'Baseline year demographics'!$C$19)</f>
+        <v>3092439.7288535219</v>
+      </c>
+      <c r="J13" s="24">
+        <f t="shared" si="0"/>
+        <v>0.22473696946686708</v>
+      </c>
+      <c r="K13" s="22">
+        <f t="shared" si="2"/>
+        <v>16082140.271146478</v>
+      </c>
+      <c r="L13" s="40">
+        <v>79155997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>2029</v>
+      </c>
+      <c r="B14" s="20">
+        <v>2690000</v>
+      </c>
+      <c r="C14" s="21">
+        <v>12584924</v>
+      </c>
+      <c r="D14" s="21">
+        <v>4430738</v>
+      </c>
+      <c r="E14" s="21">
+        <v>7008703</v>
+      </c>
+      <c r="F14" s="21">
+        <v>4856898</v>
+      </c>
+      <c r="G14" s="21">
+        <v>3479917</v>
+      </c>
+      <c r="H14" s="22">
+        <f t="shared" si="1"/>
+        <v>19776256</v>
+      </c>
+      <c r="I14" s="23">
+        <f>(B14 + 'Baseline year demographics'!$C$20*B14/(1000-'Baseline year demographics'!$C$21))/(1-'Baseline year demographics'!$C$19)</f>
+        <v>3162989.684644857</v>
+      </c>
+      <c r="J14" s="24">
+        <f t="shared" si="0"/>
+        <v>0.22404331740042199</v>
+      </c>
+      <c r="K14" s="22">
+        <f t="shared" si="2"/>
+        <v>16613266.315355143</v>
+      </c>
+      <c r="L14" s="40">
+        <v>81405880</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>2030</v>
+      </c>
+      <c r="B15" s="20">
+        <v>2740000</v>
+      </c>
+      <c r="C15" s="21">
+        <v>12839335</v>
+      </c>
+      <c r="D15" s="21">
+        <v>4546624</v>
+      </c>
+      <c r="E15" s="21">
+        <v>7239465</v>
+      </c>
+      <c r="F15" s="21">
+        <v>5005361</v>
+      </c>
+      <c r="G15" s="21">
+        <v>3595278</v>
+      </c>
+      <c r="H15" s="22">
+        <f t="shared" si="1"/>
+        <v>20386728</v>
+      </c>
+      <c r="I15" s="23">
+        <f>(B15 + 'Baseline year demographics'!$C$20*B15/(1000-'Baseline year demographics'!$C$21))/(1-'Baseline year demographics'!$C$19)</f>
+        <v>3221781.3144709696</v>
+      </c>
+      <c r="J15" s="24">
+        <f t="shared" si="0"/>
+        <v>0.22301881891002814</v>
+      </c>
+      <c r="K15" s="22">
+        <f t="shared" si="2"/>
+        <v>17164946.685529031</v>
+      </c>
+      <c r="L15" s="40">
+        <v>83702053</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:D51"/>
   <sheetViews>
@@ -25171,10 +25683,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="145" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B1" s="145" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C1" s="145" t="s">
         <v>137</v>
@@ -25199,7 +25711,7 @@
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="123" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B3" s="122">
         <v>0</v>
@@ -25213,7 +25725,7 @@
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="123" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B4" s="122">
         <v>0</v>
@@ -25565,7 +26077,7 @@
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="123" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B29" s="122">
         <v>0</v>
@@ -25579,7 +26091,7 @@
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="123" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B30" s="122">
         <v>0</v>
@@ -25621,7 +26133,7 @@
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="123" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B33" s="122">
         <v>0</v>
@@ -25749,7 +26261,7 @@
     </row>
     <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="141" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B42" s="125">
         <v>0.80700000000000005</v>
@@ -25763,7 +26275,7 @@
     </row>
     <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="141" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B43" s="125">
         <v>0.73199999999999998</v>
@@ -25777,7 +26289,7 @@
     </row>
     <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="141" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B44" s="125">
         <v>0.316</v>
@@ -25791,7 +26303,7 @@
     </row>
     <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="141" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B45" s="125">
         <v>0.59699999999999998</v>
@@ -25805,7 +26317,7 @@
     </row>
     <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="141" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B46" s="125">
         <v>0.19900000000000001</v>
@@ -25819,7 +26331,7 @@
     </row>
     <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="141" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B47" s="125">
         <v>0.13400000000000001</v>
@@ -25856,7 +26368,7 @@
         <v>0.95</v>
       </c>
       <c r="D49" s="138" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -25870,7 +26382,7 @@
         <v>0.95</v>
       </c>
       <c r="D50" s="138" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -25884,7 +26396,7 @@
         <v>0.95</v>
       </c>
       <c r="D51" s="138" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -25897,277 +26409,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{732C9C65-1200-044E-9799-D4D48ED0657E}">
-  <dimension ref="A1:K32"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="11" width="7.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="C1" s="10">
-        <v>2010</v>
-      </c>
-      <c r="D1" s="10">
-        <v>2011</v>
-      </c>
-      <c r="E1" s="10">
-        <v>2012</v>
-      </c>
-      <c r="F1" s="10">
-        <v>2013</v>
-      </c>
-      <c r="G1" s="10">
-        <v>2014</v>
-      </c>
-      <c r="H1" s="10">
-        <v>2015</v>
-      </c>
-      <c r="I1" s="10">
-        <v>2016</v>
-      </c>
-      <c r="J1" s="10">
-        <v>2017</v>
-      </c>
-      <c r="K1" s="10">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="82"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="82"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="K8" s="82"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B9" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="82"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B10" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="K10" s="82"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B11" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="K11" s="82"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B12" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="K12" s="82"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A14" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="K14" s="82"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B15" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K15" s="82"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B16" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="K16" s="82"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B17" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="K17" s="82"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B18" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="K18" s="82"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B19" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="K19" s="82"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B20" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="K20" s="82"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B21" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="K21" s="82"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B22" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="K22" s="82"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B23" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="K23" s="82"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B24" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="K24" s="82"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B25" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="K25" s="82"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B26" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="K26" s="82"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A28" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B29" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B30" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B31" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B32" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60F5240D-F5E2-7843-8F74-E64484849FE7}">
   <dimension ref="A1:P101"/>
   <sheetViews>
@@ -26179,10 +26421,10 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C1" s="86">
         <f>'Baseline year demographics'!$C2+1</f>
@@ -26247,7 +26489,7 @@
         <v>Balanced energy-protein supplementation</v>
       </c>
       <c r="B2" s="126" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C2" s="34"/>
     </row>
@@ -26257,7 +26499,7 @@
         <v>Balanced energy-protein supplementation</v>
       </c>
       <c r="B3" s="126" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C3" s="34"/>
     </row>
@@ -26267,7 +26509,7 @@
         <v>Birth age program</v>
       </c>
       <c r="B4" s="126" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C4" s="34"/>
     </row>
@@ -26277,7 +26519,7 @@
         <v>Birth age program</v>
       </c>
       <c r="B5" s="126" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C5" s="34"/>
     </row>
@@ -26287,7 +26529,7 @@
         <v>Calcium supplementation</v>
       </c>
       <c r="B6" s="126" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C6" s="34"/>
     </row>
@@ -26297,7 +26539,7 @@
         <v>Calcium supplementation</v>
       </c>
       <c r="B7" s="126" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C7" s="34"/>
     </row>
@@ -26307,7 +26549,7 @@
         <v>Cash transfers</v>
       </c>
       <c r="B8" s="126" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C8" s="34"/>
     </row>
@@ -26317,7 +26559,7 @@
         <v>Cash transfers</v>
       </c>
       <c r="B9" s="126" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C9" s="34"/>
     </row>
@@ -26327,7 +26569,7 @@
         <v>Family Planning</v>
       </c>
       <c r="B10" s="126" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C10" s="34"/>
     </row>
@@ -26337,7 +26579,7 @@
         <v>Family Planning</v>
       </c>
       <c r="B11" s="126" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C11" s="34"/>
     </row>
@@ -26347,7 +26589,7 @@
         <v>IFA fortification of maize</v>
       </c>
       <c r="B12" s="126" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C12" s="34"/>
     </row>
@@ -26357,7 +26599,7 @@
         <v>IFA fortification of maize</v>
       </c>
       <c r="B13" s="126" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C13" s="34"/>
     </row>
@@ -26367,7 +26609,7 @@
         <v>IFA fortification of rice</v>
       </c>
       <c r="B14" s="126" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C14" s="34"/>
     </row>
@@ -26377,7 +26619,7 @@
         <v>IFA fortification of rice</v>
       </c>
       <c r="B15" s="126" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C15" s="34"/>
     </row>
@@ -26387,7 +26629,7 @@
         <v>IFA fortification of wheat flour</v>
       </c>
       <c r="B16" s="126" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C16" s="34"/>
     </row>
@@ -26397,7 +26639,7 @@
         <v>IFA fortification of wheat flour</v>
       </c>
       <c r="B17" s="126" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C17" s="34"/>
     </row>
@@ -26407,7 +26649,7 @@
         <v>IFAS not poor: community</v>
       </c>
       <c r="B18" s="126" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C18" s="34"/>
     </row>
@@ -26417,7 +26659,7 @@
         <v>IFAS not poor: community</v>
       </c>
       <c r="B19" s="126" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C19" s="34"/>
     </row>
@@ -26427,7 +26669,7 @@
         <v>IFAS not poor: community (malaria area)</v>
       </c>
       <c r="B20" s="126" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C20" s="34"/>
     </row>
@@ -26437,7 +26679,7 @@
         <v>IFAS not poor: community (malaria area)</v>
       </c>
       <c r="B21" s="126" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C21" s="34"/>
     </row>
@@ -26447,7 +26689,7 @@
         <v>IFAS not poor: hospital</v>
       </c>
       <c r="B22" s="126" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C22" s="34"/>
     </row>
@@ -26457,7 +26699,7 @@
         <v>IFAS not poor: hospital</v>
       </c>
       <c r="B23" s="126" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C23" s="34"/>
     </row>
@@ -26467,7 +26709,7 @@
         <v>IFAS not poor: hospital (malaria area)</v>
       </c>
       <c r="B24" s="126" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C24" s="34"/>
     </row>
@@ -26477,7 +26719,7 @@
         <v>IFAS not poor: hospital (malaria area)</v>
       </c>
       <c r="B25" s="126" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C25" s="34"/>
     </row>
@@ -26487,7 +26729,7 @@
         <v>IFAS not poor: retailer</v>
       </c>
       <c r="B26" s="126" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C26" s="34"/>
     </row>
@@ -26497,7 +26739,7 @@
         <v>IFAS not poor: retailer</v>
       </c>
       <c r="B27" s="126" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C27" s="34"/>
     </row>
@@ -26507,7 +26749,7 @@
         <v>IFAS not poor: retailer (malaria area)</v>
       </c>
       <c r="B28" s="126" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C28" s="34"/>
     </row>
@@ -26517,7 +26759,7 @@
         <v>IFAS not poor: retailer (malaria area)</v>
       </c>
       <c r="B29" s="126" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C29" s="34"/>
     </row>
@@ -26527,7 +26769,7 @@
         <v>IFAS not poor: school</v>
       </c>
       <c r="B30" s="126" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C30" s="34"/>
     </row>
@@ -26537,7 +26779,7 @@
         <v>IFAS not poor: school</v>
       </c>
       <c r="B31" s="126" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C31" s="34"/>
     </row>
@@ -26547,7 +26789,7 @@
         <v>IFAS not poor: school (malaria area)</v>
       </c>
       <c r="B32" s="126" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C32" s="34"/>
     </row>
@@ -26557,7 +26799,7 @@
         <v>IFAS not poor: school (malaria area)</v>
       </c>
       <c r="B33" s="126" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C33" s="34"/>
     </row>
@@ -26567,7 +26809,7 @@
         <v>IFAS poor: community</v>
       </c>
       <c r="B34" s="126" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C34" s="34"/>
     </row>
@@ -26577,7 +26819,7 @@
         <v>IFAS poor: community</v>
       </c>
       <c r="B35" s="126" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C35" s="34"/>
     </row>
@@ -26587,7 +26829,7 @@
         <v>IFAS poor: community (malaria area)</v>
       </c>
       <c r="B36" s="126" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C36" s="34"/>
     </row>
@@ -26597,7 +26839,7 @@
         <v>IFAS poor: community (malaria area)</v>
       </c>
       <c r="B37" s="126" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C37" s="34"/>
     </row>
@@ -26607,7 +26849,7 @@
         <v>IFAS poor: hospital</v>
       </c>
       <c r="B38" s="126" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C38" s="34"/>
     </row>
@@ -26617,7 +26859,7 @@
         <v>IFAS poor: hospital</v>
       </c>
       <c r="B39" s="126" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C39" s="34"/>
     </row>
@@ -26627,7 +26869,7 @@
         <v>IFAS poor: hospital (malaria area)</v>
       </c>
       <c r="B40" s="126" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C40" s="34"/>
     </row>
@@ -26637,7 +26879,7 @@
         <v>IFAS poor: hospital (malaria area)</v>
       </c>
       <c r="B41" s="126" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C41" s="34"/>
     </row>
@@ -26647,7 +26889,7 @@
         <v>IFAS poor: school</v>
       </c>
       <c r="B42" s="126" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C42" s="34"/>
     </row>
@@ -26657,7 +26899,7 @@
         <v>IFAS poor: school</v>
       </c>
       <c r="B43" s="126" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C43" s="34"/>
     </row>
@@ -26667,7 +26909,7 @@
         <v>IFAS poor: school (malaria area)</v>
       </c>
       <c r="B44" s="126" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C44" s="34"/>
     </row>
@@ -26677,7 +26919,7 @@
         <v>IFAS poor: school (malaria area)</v>
       </c>
       <c r="B45" s="126" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C45" s="34"/>
     </row>
@@ -26687,7 +26929,7 @@
         <v>IPTp</v>
       </c>
       <c r="B46" s="126" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C46" s="34"/>
     </row>
@@ -26697,7 +26939,7 @@
         <v>IPTp</v>
       </c>
       <c r="B47" s="126" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C47" s="34"/>
     </row>
@@ -26707,7 +26949,7 @@
         <v>Iron and folic acid supplementation for pregnant women</v>
       </c>
       <c r="B48" s="126" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C48" s="34"/>
     </row>
@@ -26717,7 +26959,7 @@
         <v>Iron and folic acid supplementation for pregnant women</v>
       </c>
       <c r="B49" s="126" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C49" s="34"/>
     </row>
@@ -26727,7 +26969,7 @@
         <v>Iron and folic acid supplementation for pregnant women (malaria area)</v>
       </c>
       <c r="B50" s="126" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C50" s="34"/>
     </row>
@@ -26737,7 +26979,7 @@
         <v>Iron and folic acid supplementation for pregnant women (malaria area)</v>
       </c>
       <c r="B51" s="126" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C51" s="34"/>
     </row>
@@ -26747,7 +26989,7 @@
         <v>Iron and iodine fortification of salt</v>
       </c>
       <c r="B52" s="126" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C52" s="34"/>
     </row>
@@ -26757,7 +26999,7 @@
         <v>Iron and iodine fortification of salt</v>
       </c>
       <c r="B53" s="126" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C53" s="34"/>
     </row>
@@ -26767,7 +27009,7 @@
         <v>Long-lasting insecticide-treated bednets</v>
       </c>
       <c r="B54" s="126" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C54" s="34"/>
     </row>
@@ -26777,7 +27019,7 @@
         <v>Long-lasting insecticide-treated bednets</v>
       </c>
       <c r="B55" s="126" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C55" s="34"/>
     </row>
@@ -26787,7 +27029,7 @@
         <v>Mg for eclampsia</v>
       </c>
       <c r="B56" s="126" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C56" s="34"/>
     </row>
@@ -26797,7 +27039,7 @@
         <v>Mg for eclampsia</v>
       </c>
       <c r="B57" s="126" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C57" s="34"/>
     </row>
@@ -26807,7 +27049,7 @@
         <v>Mg for pre-eclampsia</v>
       </c>
       <c r="B58" s="126" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C58" s="34"/>
     </row>
@@ -26817,7 +27059,7 @@
         <v>Mg for pre-eclampsia</v>
       </c>
       <c r="B59" s="126" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C59" s="34"/>
     </row>
@@ -26827,7 +27069,7 @@
         <v>Multiple micronutrient supplementation</v>
       </c>
       <c r="B60" s="126" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C60" s="34"/>
     </row>
@@ -26837,7 +27079,7 @@
         <v>Multiple micronutrient supplementation</v>
       </c>
       <c r="B61" s="126" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C61" s="34"/>
     </row>
@@ -26847,7 +27089,7 @@
         <v>Multiple micronutrient supplementation (malaria area)</v>
       </c>
       <c r="B62" s="126" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C62" s="34"/>
     </row>
@@ -26857,7 +27099,7 @@
         <v>Multiple micronutrient supplementation (malaria area)</v>
       </c>
       <c r="B63" s="126" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C63" s="34"/>
     </row>
@@ -26867,7 +27109,7 @@
         <v>Oral rehydration salts</v>
       </c>
       <c r="B64" s="126" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C64" s="34"/>
     </row>
@@ -26877,7 +27119,7 @@
         <v>Oral rehydration salts</v>
       </c>
       <c r="B65" s="126" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C65" s="34"/>
     </row>
@@ -26887,7 +27129,7 @@
         <v>Public provision of complementary foods</v>
       </c>
       <c r="B66" s="126" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C66" s="34"/>
     </row>
@@ -26897,7 +27139,7 @@
         <v>Public provision of complementary foods</v>
       </c>
       <c r="B67" s="126" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C67" s="34"/>
     </row>
@@ -26907,7 +27149,7 @@
         <v>Public provision of complementary foods with iron</v>
       </c>
       <c r="B68" s="126" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C68" s="34"/>
     </row>
@@ -26917,7 +27159,7 @@
         <v>Public provision of complementary foods with iron</v>
       </c>
       <c r="B69" s="126" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C69" s="34"/>
     </row>
@@ -26927,7 +27169,7 @@
         <v>Public provision of complementary foods with iron (malaria area)</v>
       </c>
       <c r="B70" s="126" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C70" s="34"/>
     </row>
@@ -26937,7 +27179,7 @@
         <v>Public provision of complementary foods with iron (malaria area)</v>
       </c>
       <c r="B71" s="126" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C71" s="34"/>
     </row>
@@ -26947,7 +27189,7 @@
         <v>Sprinkles</v>
       </c>
       <c r="B72" s="126" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C72" s="34"/>
     </row>
@@ -26957,7 +27199,7 @@
         <v>Sprinkles</v>
       </c>
       <c r="B73" s="126" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C73" s="34"/>
     </row>
@@ -26967,7 +27209,7 @@
         <v>Sprinkles (malaria area)</v>
       </c>
       <c r="B74" s="126" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C74" s="34"/>
     </row>
@@ -26977,7 +27219,7 @@
         <v>Sprinkles (malaria area)</v>
       </c>
       <c r="B75" s="126" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C75" s="34"/>
     </row>
@@ -26987,7 +27229,7 @@
         <v>Treatment of MAM</v>
       </c>
       <c r="B76" s="126" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C76" s="34"/>
     </row>
@@ -26997,7 +27239,7 @@
         <v>Treatment of MAM</v>
       </c>
       <c r="B77" s="126" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C77" s="34"/>
     </row>
@@ -27007,7 +27249,7 @@
         <v>Treatment of SAM</v>
       </c>
       <c r="B78" s="126" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C78" s="34"/>
     </row>
@@ -27017,7 +27259,7 @@
         <v>Treatment of SAM</v>
       </c>
       <c r="B79" s="126" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C79" s="34"/>
     </row>
@@ -27027,7 +27269,7 @@
         <v>Vitamin A supplementation</v>
       </c>
       <c r="B80" s="126" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C80" s="34"/>
     </row>
@@ -27037,7 +27279,7 @@
         <v>Vitamin A supplementation</v>
       </c>
       <c r="B81" s="126" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C81" s="34"/>
     </row>
@@ -27047,7 +27289,7 @@
         <v>WASH: Handwashing</v>
       </c>
       <c r="B82" s="126" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C82" s="34"/>
     </row>
@@ -27057,7 +27299,7 @@
         <v>WASH: Handwashing</v>
       </c>
       <c r="B83" s="126" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C83" s="34"/>
     </row>
@@ -27067,7 +27309,7 @@
         <v>WASH: Hygenic disposal</v>
       </c>
       <c r="B84" s="126" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C84" s="34"/>
     </row>
@@ -27077,7 +27319,7 @@
         <v>WASH: Hygenic disposal</v>
       </c>
       <c r="B85" s="126" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C85" s="34"/>
     </row>
@@ -27087,7 +27329,7 @@
         <v>WASH: Improved sanitation</v>
       </c>
       <c r="B86" s="126" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C86" s="34"/>
     </row>
@@ -27097,7 +27339,7 @@
         <v>WASH: Improved sanitation</v>
       </c>
       <c r="B87" s="126" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C87" s="34"/>
     </row>
@@ -27107,7 +27349,7 @@
         <v>WASH: Improved water source</v>
       </c>
       <c r="B88" s="126" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C88" s="34"/>
     </row>
@@ -27117,7 +27359,7 @@
         <v>WASH: Improved water source</v>
       </c>
       <c r="B89" s="126" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C89" s="34"/>
     </row>
@@ -27127,7 +27369,7 @@
         <v>WASH: Piped water</v>
       </c>
       <c r="B90" s="126" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C90" s="34"/>
     </row>
@@ -27137,7 +27379,7 @@
         <v>WASH: Piped water</v>
       </c>
       <c r="B91" s="126" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C91" s="34"/>
     </row>
@@ -27147,7 +27389,7 @@
         <v>Zinc for treatment + ORS</v>
       </c>
       <c r="B92" s="126" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C92" s="34"/>
     </row>
@@ -27157,7 +27399,7 @@
         <v>Zinc for treatment + ORS</v>
       </c>
       <c r="B93" s="126" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C93" s="34"/>
     </row>
@@ -27167,7 +27409,7 @@
         <v>Zinc supplementation</v>
       </c>
       <c r="B94" s="126" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C94" s="34"/>
     </row>
@@ -27177,7 +27419,7 @@
         <v>Zinc supplementation</v>
       </c>
       <c r="B95" s="126" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C95" s="34"/>
     </row>
@@ -27187,7 +27429,7 @@
         <v>IYCF 1</v>
       </c>
       <c r="B96" s="126" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C96" s="34"/>
     </row>
@@ -27197,7 +27439,7 @@
         <v>IYCF 1</v>
       </c>
       <c r="B97" s="126" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C97" s="34"/>
     </row>
@@ -27207,7 +27449,7 @@
         <v>IYCF 2</v>
       </c>
       <c r="B98" s="126" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C98" s="34"/>
     </row>
@@ -27217,7 +27459,7 @@
         <v>IYCF 2</v>
       </c>
       <c r="B99" s="126" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C99" s="34"/>
     </row>
@@ -27227,7 +27469,7 @@
         <v>IYCF 3</v>
       </c>
       <c r="B100" s="126" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C100" s="34"/>
     </row>
@@ -27237,7 +27479,7 @@
         <v>IYCF 3</v>
       </c>
       <c r="B101" s="126" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C101" s="34"/>
     </row>
@@ -27247,7 +27489,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
@@ -27263,7 +27505,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B1" s="10"/>
     </row>
@@ -27284,27 +27526,27 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -27313,7 +27555,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:B51"/>
   <sheetViews>
@@ -27329,10 +27571,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -27345,13 +27587,13 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="120" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B3" s="126"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B4" s="126" t="s">
         <v>161</v>
@@ -27529,7 +27771,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B29" s="126" t="s">
         <v>161</v>
@@ -27537,7 +27779,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B30" s="126" t="s">
         <v>161</v>
@@ -27558,7 +27800,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B33" s="126" t="s">
         <v>161</v>
@@ -27624,37 +27866,37 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B42" s="126"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B43" s="126"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B44" s="126"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B45" s="126"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B46" s="126"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B47" s="126" t="s">
         <v>161</v>
@@ -27692,6 +27934,345 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{732C9C65-1200-044E-9799-D4D48ED0657E}">
+  <dimension ref="A1:K32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="7.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C1" s="10">
+        <v>2010</v>
+      </c>
+      <c r="D1" s="10">
+        <v>2011</v>
+      </c>
+      <c r="E1" s="10">
+        <v>2012</v>
+      </c>
+      <c r="F1" s="10">
+        <v>2013</v>
+      </c>
+      <c r="G1" s="10">
+        <v>2014</v>
+      </c>
+      <c r="H1" s="10">
+        <v>2015</v>
+      </c>
+      <c r="I1" s="10">
+        <v>2016</v>
+      </c>
+      <c r="J1" s="10">
+        <v>2017</v>
+      </c>
+      <c r="K1" s="10">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82">
+        <f>SUM(Distributions!$C$4:$C$5)</f>
+        <v>0.13300000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82">
+        <f>SUM(Distributions!D$4:D$5)</f>
+        <v>0.13300000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82">
+        <f>SUM(Distributions!E$4:E$5)</f>
+        <v>0.19108504098360654</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="82">
+        <f>SUM(Distributions!F$4:F$5)</f>
+        <v>0.37891670566214319</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="82">
+        <f>SUM(Distributions!G$4:G$5)</f>
+        <v>0.39358559498956158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="82">
+        <f>SUM(Distributions!C10:C11)</f>
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="82">
+        <f>SUM(Distributions!D10:D11)</f>
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="82">
+        <f>SUM(Distributions!E10:E11)</f>
+        <v>6.9747692307692316E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="82">
+        <f>SUM(Distributions!F10:F11)</f>
+        <v>5.2643124415341441E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" s="82">
+        <f>SUM(Distributions!G10:G11)</f>
+        <v>2.9665156004880597E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A14" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="82">
+        <f>'Prevalence of anaemia'!C3</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" s="82">
+        <f>'Prevalence of anaemia'!D3</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B16" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K16" s="82">
+        <f>'Prevalence of anaemia'!E3</f>
+        <v>0.32801999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17" s="82">
+        <f>'Prevalence of anaemia'!F3</f>
+        <v>0.30639</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B18" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K18" s="82">
+        <f>'Prevalence of anaemia'!G3</f>
+        <v>0.20314000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B19" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="K19" s="82">
+        <f>'Prevalence of anaemia'!H3</f>
+        <v>0.19865999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B20" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="K20" s="82">
+        <f>'Prevalence of anaemia'!I3</f>
+        <v>0.18773999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B21" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="K21" s="82">
+        <f>'Prevalence of anaemia'!J3</f>
+        <v>0.18185999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B22" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K22" s="82">
+        <f>'Prevalence of anaemia'!K3</f>
+        <v>0.18564</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B23" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="K23" s="82">
+        <f>'Prevalence of anaemia'!L3</f>
+        <v>0.19865999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B24" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="K24" s="82">
+        <f>'Prevalence of anaemia'!M3</f>
+        <v>0.18773999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B25" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="K25" s="82">
+        <f>'Prevalence of anaemia'!N3</f>
+        <v>0.18185999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B26" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="K26" s="82">
+        <f>'Prevalence of anaemia'!O3</f>
+        <v>0.18564</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A28" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B29" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B30" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B31" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B32" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J28"/>
   <sheetViews>
@@ -27736,7 +28317,7 @@
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B2" s="111">
         <v>2.7000000000000001E-3</v>
@@ -27992,7 +28573,7 @@
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B10" s="112">
         <v>0</v>
@@ -28024,7 +28605,7 @@
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B11" s="112">
         <v>0</v>
@@ -28609,7 +29190,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -28641,7 +29222,7 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B2" s="15">
         <f>6.4*26/100</f>
@@ -28666,7 +29247,7 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B3" s="30">
         <v>3.2000000000000001E-2</v>
@@ -28761,7 +29342,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O7"/>
   <sheetViews>
@@ -28781,7 +29362,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>12</v>
@@ -28828,10 +29409,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C2" s="82">
         <f t="shared" ref="C2:O2" si="0">1-C3</f>
@@ -28888,7 +29469,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C3" s="82">
         <f>C6</f>
@@ -28962,10 +29543,10 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C5" s="113">
         <v>0.1</v>
@@ -29014,10 +29595,10 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C6" s="113">
         <v>0.05</v>
@@ -29072,10 +29653,10 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C7" s="117">
         <v>2.7699999999999999E-2</v>
@@ -29124,7 +29705,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
@@ -29509,7 +30090,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDDF9271-A6AF-7E41-A1A9-AAF3090BE398}">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -29525,31 +30106,31 @@
         <v>12</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E1" s="133" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>268</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
@@ -29557,7 +30138,7 @@
         <v>13</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D2" s="11">
         <v>984</v>
@@ -29586,10 +30167,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B3" s="12" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D3">
         <v>0.13300000000000001</v>
@@ -29619,10 +30200,10 @@
     <row r="4" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="51"/>
       <c r="B4" s="12" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D4" s="11">
         <v>4.5999999999999999E-2</v>
@@ -29668,7 +30249,7 @@
         <v>27</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D8" s="11">
         <v>961</v>
@@ -29697,10 +30278,10 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B9" s="12" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D9" s="11">
         <v>9.4E-2</v>
@@ -29730,10 +30311,10 @@
     <row r="10" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="51"/>
       <c r="B10" s="12" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D10" s="11">
         <v>0.04</v>
@@ -29765,16 +30346,16 @@
         <v>6</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>9</v>
@@ -29786,7 +30367,7 @@
         <v>36</v>
       </c>
       <c r="C14" s="126" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D14">
         <v>381</v>
@@ -29812,7 +30393,7 @@
         <v>37</v>
       </c>
       <c r="C15" s="126" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D15">
         <v>0.84</v>
@@ -29838,7 +30419,7 @@
         <v>38</v>
       </c>
       <c r="C16" s="126" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D16">
         <v>9.1999999999999998E-2</v>
@@ -29868,7 +30449,7 @@
         <v>39</v>
       </c>
       <c r="C17" s="126" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D17">
         <v>5.8000000000000003E-2</v>
@@ -29894,7 +30475,7 @@
         <v>40</v>
       </c>
       <c r="C18" s="126" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D18">
         <f>1-SUM(D15:D17)</f>
@@ -29924,148 +30505,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C15"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="39" x14ac:dyDescent="0.15">
-      <c r="A2" s="87" t="s">
-        <v>229</v>
-      </c>
-      <c r="B2" s="92" t="s">
-        <v>230</v>
-      </c>
-      <c r="C2" s="118">
-        <v>5.6000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="52" x14ac:dyDescent="0.15">
-      <c r="B3" s="88" t="s">
-        <v>231</v>
-      </c>
-      <c r="C3" s="118">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="52" x14ac:dyDescent="0.15">
-      <c r="B4" s="88" t="s">
-        <v>232</v>
-      </c>
-      <c r="C4" s="118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="39" x14ac:dyDescent="0.15">
-      <c r="B5" s="89" t="s">
-        <v>233</v>
-      </c>
-      <c r="C5" s="118">
-        <v>0.152</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="52" x14ac:dyDescent="0.15">
-      <c r="B6" s="89" t="s">
-        <v>234</v>
-      </c>
-      <c r="C6" s="118">
-        <v>0.34200000000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="52" x14ac:dyDescent="0.15">
-      <c r="B7" s="89" t="s">
-        <v>235</v>
-      </c>
-      <c r="C7" s="118">
-        <v>0.29899999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="26" x14ac:dyDescent="0.15">
-      <c r="B8" s="90" t="s">
-        <v>236</v>
-      </c>
-      <c r="C8" s="118">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="52" x14ac:dyDescent="0.15">
-      <c r="B9" s="90" t="s">
-        <v>237</v>
-      </c>
-      <c r="C9" s="118">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="52" x14ac:dyDescent="0.15">
-      <c r="B10" s="90" t="s">
-        <v>238</v>
-      </c>
-      <c r="C10" s="118">
-        <v>0.14099999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C11" s="118"/>
-    </row>
-    <row r="12" spans="1:3" ht="26" x14ac:dyDescent="0.15">
-      <c r="A12" s="87" t="s">
-        <v>239</v>
-      </c>
-      <c r="B12" s="91" t="s">
-        <v>240</v>
-      </c>
-      <c r="C12" s="118">
-        <v>0.20799999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="26" x14ac:dyDescent="0.15">
-      <c r="B13" s="91" t="s">
-        <v>241</v>
-      </c>
-      <c r="C13" s="118">
-        <v>3.5999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="26" x14ac:dyDescent="0.15">
-      <c r="B14" s="91" t="s">
-        <v>242</v>
-      </c>
-      <c r="C14" s="118">
-        <v>0.11899999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="26" x14ac:dyDescent="0.15">
-      <c r="B15" s="91" t="s">
-        <v>243</v>
-      </c>
-      <c r="C15" s="118">
-        <v>0.63700000000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
 </file>